--- a/data/_out/stat-file.xlsx
+++ b/data/_out/stat-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eithan/opt/dev/phase3/data/_out/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF95FDB-784C-A946-8D9C-96BC18284F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A399F2AB-09B4-8F49-9214-499D15962A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="4300" windowWidth="27640" windowHeight="16940" xr2:uid="{43BE092A-9E82-8E4B-A6CE-526DAE7B1B90}"/>
   </bookViews>
@@ -54,12 +54,6 @@
     <t>pc</t>
   </si>
   <si>
-    <t>in-dev</t>
-  </si>
-  <si>
-    <t>completed</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -130,6 +124,12 @@
   </si>
   <si>
     <t>02.24: אספקה ללא סימוכין</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -523,24 +523,24 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2">
         <v>44243.333333333343</v>
@@ -563,13 +563,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
         <v>44243.333333333343</v>
@@ -592,13 +592,13 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>44243.333333333343</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>44243.333333333343</v>
@@ -650,13 +650,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
         <v>44243.333333333343</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2">
         <v>44243.333333333343</v>
@@ -708,13 +708,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2">
         <v>44243.333333333343</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
         <v>44243.333333333343</v>
@@ -766,13 +766,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
         <v>44243.333333333343</v>
@@ -795,13 +795,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>44243.333333333343</v>
@@ -824,13 +824,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2">
         <v>44243.333333333343</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2">
         <v>44243.333333333343</v>
@@ -882,13 +882,13 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>44243.333333333343</v>
@@ -911,13 +911,13 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2">
         <v>44243.333333333343</v>
@@ -940,13 +940,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2">
         <v>44243.333333333343</v>
@@ -969,13 +969,13 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>44243.333333333343</v>
@@ -998,13 +998,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2">
         <v>44243.333333333343</v>
@@ -1027,13 +1027,13 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <v>44251.333333333343</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
         <v>44258.333333333343</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2">
         <v>44243.333333333343</v>
